--- a/data/corvina_length_gillnets_2.5_3_3.5_2014.xlsx
+++ b/data/corvina_length_gillnets_2.5_3_3.5_2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -38,18 +38,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -76,12 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -445,10 +434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -670,34 +659,26 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2">
-        <v>46.9337871287129</v>
+      <c r="A28" s="1">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.3476754900000001</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1">
-        <v>1.3476754900000001</v>
+        <v>1.8996235561056101</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
-        <v>1.8996235561056101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>70</v>
-      </c>
-      <c r="B31" s="1">
         <v>2.0458178630363002</v>
       </c>
     </row>
